--- a/senda_shopee.xlsx
+++ b/senda_shopee.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="519">
   <si>
     <t>Tên Shop</t>
   </si>
   <si>
+    <t>Shop Id</t>
+  </si>
+  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
@@ -34,6 +37,39 @@
     <t>Link Sản phẩm</t>
   </si>
   <si>
+    <t>SEN ĐÁ GLASS GARDEN</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda.glassgarden</t>
+  </si>
+  <si>
+    <t>Lâm Đồng</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.10816646043;https://shopee.vn/senda-i.28117764.12971280770;https://shopee.vn/senda-i.28117764.9362767813;https://shopee.vn/senda-i.28117764.20308113843;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10816646043;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10816646043;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10816646043;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10816646043;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.9362767813;https://shopee.vn/senda-i.28117764.12593452954;https://shopee.vn/senda-i.28117764.8296615569;https://shopee.vn/senda-i.28117764.11608874831;https://shopee.vn/senda-i.28117764.12971280770;https://shopee.vn/senda-i.28117764.8472052231;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10816646043;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.14402288562;https://shopee.vn/senda-i.28117764.10816646043;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.10908730362;https://shopee.vn/senda-i.28117764.9362767813;https://shopee.vn/senda-i.28117764.12593452954;https://shopee.vn/senda-i.28117764.8296615569;https://shopee.vn/senda-i.28117764.11608874831;https://shopee.vn/senda-i.28117764.12971280770;https://shopee.vn/senda-i.28117764.8472052231;https://shopee.vn/senda-i.28117764.9262834940;https://shopee.vn/senda-i.28117764.20308113843;https://shopee.vn/senda-i.28117764.19908114129;https://shopee.vn/senda-i.28117764.4191167800;https://shopee.vn/senda-i.28117764.8664343999</t>
+  </si>
+  <si>
+    <t>SONDA Garden - Succulent Farm</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sondagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.19326251643;https://shopee.vn/senda-i.233555165.4332143977;https://shopee.vn/senda-i.233555165.14714500745;https://shopee.vn/senda-i.233555165.21262246452;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.8349474246;https://shopee.vn/senda-i.233555165.8333516875;https://shopee.vn/senda-i.233555165.5820683699;https://shopee.vn/senda-i.233555165.5756274892;https://shopee.vn/senda-i.233555165.7351196639;https://shopee.vn/senda-i.233555165.3349571813;https://shopee.vn/senda-i.233555165.5739269453;https://shopee.vn/senda-i.233555165.6255387175;https://shopee.vn/senda-i.233555165.7479514132;https://shopee.vn/senda-i.233555165.3256438826;https://shopee.vn/senda-i.233555165.6155390226;https://shopee.vn/senda-i.233555165.3689411978;https://shopee.vn/senda-i.233555165.12931369337;https://shopee.vn/senda-i.233555165.9886769142;https://shopee.vn/senda-i.233555165.6532136099;https://shopee.vn/senda-i.233555165.6656258288;https://shopee.vn/senda-i.233555165.12447035000;https://shopee.vn/senda-i.233555165.4345763005;https://shopee.vn/senda-i.233555165.7455533106;https://shopee.vn/senda-i.233555165.5053796634;https://shopee.vn/senda-i.233555165.14892466251;https://shopee.vn/senda-i.233555165.14617645573;https://shopee.vn/senda-i.233555165.4839275802;https://shopee.vn/senda-i.233555165.18002356868;https://shopee.vn/senda-i.233555165.3632234093;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.19326251643;https://shopee.vn/senda-i.233555165.19326251643;https://shopee.vn/senda-i.233555165.14714500745;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.4355392759;https://shopee.vn/senda-i.233555165.19343904804;https://shopee.vn/senda-i.233555165.19326251643;https://shopee.vn/senda-i.233555165.19326251643;https://shopee.vn/senda-i.233555165.14714500745;https://shopee.vn/senda-i.233555165.21262246452;https://shopee.vn/senda-i.233555165.3576995444;https://shopee.vn/senda-i.233555165.7219934863;https://shopee.vn/senda-i.233555165.4332143977;https://shopee.vn/senda-i.233555165.18601462594</t>
+  </si>
+  <si>
+    <t>Vườn sen đá</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuonsenda</t>
+  </si>
+  <si>
+    <t>TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7802475990;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.19030726022;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.3316723268;https://shopee.vn/senda-i.51191799.5108669208;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.3202629531;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.7802475990;https://shopee.vn/senda-i.51191799.21333471731;https://shopee.vn/senda-i.51191799.4213470121;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.3202629531;https://shopee.vn/senda-i.51191799.21333471731;https://shopee.vn/senda-i.51191799.7202471273;https://shopee.vn/senda-i.51191799.7802475990;https://shopee.vn/senda-i.51191799.4213470121;https://shopee.vn/senda-i.51191799.17128658161;https://shopee.vn/senda-i.51191799.4702399629;https://shopee.vn/senda-i.51191799.6002465432;https://shopee.vn/senda-i.51191799.7802475990;https://shopee.vn/senda-i.51191799.1737357567</t>
+  </si>
+  <si>
     <t>soen_shop</t>
   </si>
   <si>
@@ -43,40 +79,1495 @@
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>https://shopee.vn/Sen-%C4%91%C3%A1-size-mini-(sen-v%E1%BB%89)-3-5-cm-c%C3%A1c-lo%E1%BA%A1i-si%C3%AAu-kh%E1%BB%8Fe-xu%E1%BA%A5t-s%E1%BB%A9-%C4%90%C3%80-L%E1%BA%A0T-L%E1%BB%97i-1-%C4%91%E1%BB%95i-1-i.332586952.16418147562</t>
-  </si>
-  <si>
-    <t>sondagarden</t>
-  </si>
-  <si>
-    <t>https://shopee.vn/sondagarden</t>
-  </si>
-  <si>
-    <t>Thành Phố Đà Lạt, Lâm Đồng</t>
-  </si>
-  <si>
-    <t>https://shopee.vn/Sen-%C4%91%C3%A1-mini-40-lo%E1%BA%A1i-kh%C3%A1c-nhau-SONDA-garden-c%C3%A2y-c%E1%BA%A3nh-trang-tr%C3%AD-nh%C3%A0-c%E1%BB%ADa-l%E1%BB%97i-1-%C4%91%E1%BB%95i-1-i.233555165.4355392759</t>
-  </si>
-  <si>
-    <t>lolita.garden</t>
+    <t>https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.8843555955;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.8843555955;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.8843555955;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.8843555955;https://shopee.vn/senda-i.332586952.13695692366;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.16418147562;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.8843555955;https://shopee.vn/senda-i.332586952.13695692366;https://shopee.vn/senda-i.332586952.9307983715;https://shopee.vn/senda-i.332586952.5975402197;https://shopee.vn/senda-i.332586952.5480445614;https://shopee.vn/senda-i.332586952.18203966829;https://shopee.vn/senda-i.332586952.17065698355</t>
+  </si>
+  <si>
+    <t>Khu Vườn Sen Đá</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/khuvuonsenda</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.162052707.7002206005;https://shopee.vn/senda-i.162052707.13027808364;https://shopee.vn/senda-i.162052707.2767896714;https://shopee.vn/senda-i.162052707.13027808364;https://shopee.vn/senda-i.162052707.7002206005;https://shopee.vn/senda-i.162052707.7002206005;https://shopee.vn/senda-i.162052707.13027808364;https://shopee.vn/senda-i.162052707.4510037935;https://shopee.vn/senda-i.162052707.7002206005;https://shopee.vn/senda-i.162052707.13027808364;https://shopee.vn/senda-i.162052707.7002206005;https://shopee.vn/senda-i.162052707.13027808364;https://shopee.vn/senda-i.162052707.4510037935;https://shopee.vn/senda-i.162052707.3305579651;https://shopee.vn/senda-i.162052707.6850299823;https://shopee.vn/senda-i.162052707.4302358814;https://shopee.vn/senda-i.162052707.3711841212;https://shopee.vn/senda-i.162052707.7002206005;https://shopee.vn/senda-i.162052707.13027808364;https://shopee.vn/senda-i.162052707.4510037935;https://shopee.vn/senda-i.162052707.7002206005;https://shopee.vn/senda-i.162052707.13027808364;https://shopee.vn/senda-i.162052707.6850299823;https://shopee.vn/senda-i.162052707.4020754870;https://shopee.vn/senda-i.162052707.11488751344;https://shopee.vn/senda-i.162052707.4302358814;https://shopee.vn/senda-i.162052707.2767896714;https://shopee.vn/senda-i.162052707.12628472975;https://shopee.vn/senda-i.162052707.10561950693;https://shopee.vn/senda-i.162052707.6811935251</t>
+  </si>
+  <si>
+    <t>vườn sen đá Venus</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuonsendavenus</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.7254448.19009382997;https://shopee.vn/senda-i.7254448.19009382997;https://shopee.vn/senda-i.7254448.19009382997;https://shopee.vn/senda-i.7254448.19009382997;https://shopee.vn/senda-i.7254448.19009382997</t>
+  </si>
+  <si>
+    <t>Vườn của Gió</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/the_garden_of_wind</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.28067799.8286089256;https://shopee.vn/senda-i.28067799.8286089256;https://shopee.vn/senda-i.28067799.8933633329;https://shopee.vn/senda-i.28067799.8286089256;https://shopee.vn/senda-i.28067799.8933633329</t>
+  </si>
+  <si>
+    <t>Nguyen.garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nguyen.garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.7117257936;https://shopee.vn/senda-i.160763867.5817228011;https://shopee.vn/senda-i.160763867.4117228016;https://shopee.vn/senda-i.160763867.4417260323;https://shopee.vn/senda-i.160763867.5517204983;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5517204983;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5517204983;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5517204983;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.4317483152;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5517204983;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.3217645902;https://shopee.vn/senda-i.160763867.5017201756;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5517204983;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.5258493914;https://shopee.vn/senda-i.160763867.4317483152;https://shopee.vn/senda-i.160763867.7317258314;https://shopee.vn/senda-i.160763867.7317258314;https://shopee.vn/senda-i.160763867.6317256871;https://shopee.vn/senda-i.160763867.6117205141;https://shopee.vn/senda-i.160763867.3217645902</t>
+  </si>
+  <si>
+    <t>Sendaphongthuy</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendaphongthuy</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.88578215.1775175567;https://shopee.vn/senda-i.88578215.1775175567;https://shopee.vn/senda-i.88578215.1775175567</t>
+  </si>
+  <si>
+    <t>sendahapi</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendahapi</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.1486841033;https://shopee.vn/senda-i.72417161.7337578668;https://shopee.vn/senda-i.72417161.19761599958;https://shopee.vn/senda-i.72417161.16086133931;https://shopee.vn/senda-i.72417161.20939206128;https://shopee.vn/senda-i.72417161.20837282124</t>
+  </si>
+  <si>
+    <t>CHẬU ĐẤT NUNG BÌNH DƯƠNG</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/chaudatnungbinhduong</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.65073040.14977864975</t>
+  </si>
+  <si>
+    <t>HẠT GIONG CAY TRONG</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/daphongtuy</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.63180920.1726868960;https://shopee.vn/senda-i.63180920.1726868960;https://shopee.vn/senda-i.63180920.1726868960</t>
+  </si>
+  <si>
+    <t>Vuonsendachauchau</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendachauchau</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.408857874.9630873243;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.2942188939;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.9630873243;https://shopee.vn/senda-i.408857874.2942188939;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.9630873243;https://shopee.vn/senda-i.408857874.2942188939;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.9630873243;https://shopee.vn/senda-i.408857874.2942188939;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.9630873243;https://shopee.vn/senda-i.408857874.2942188939;https://shopee.vn/senda-i.408857874.16872935645;https://shopee.vn/senda-i.408857874.9630873243;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.2942188939;https://shopee.vn/senda-i.408857874.9630873243;https://shopee.vn/senda-i.408857874.7483089420;https://shopee.vn/senda-i.408857874.2942188939;https://shopee.vn/senda-i.408857874.16872935645;https://shopee.vn/senda-i.408857874.5983088527;https://shopee.vn/senda-i.408857874.8032088135</t>
+  </si>
+  <si>
+    <t>Siêu Thị Cây Mọng Nước</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sieuthicaymongnuoc</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.279041398.21157894657;https://shopee.vn/senda-i.279041398.21157894657;https://shopee.vn/senda-i.279041398.18960122897;https://shopee.vn/senda-i.279041398.22606027053;https://shopee.vn/senda-i.279041398.19259184281</t>
+  </si>
+  <si>
+    <t>Châu Chấu Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendaxuongrongtphcm</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.5640278250;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.10704781531;https://shopee.vn/senda-i.66894521.5517269802;https://shopee.vn/senda-i.66894521.5640278250</t>
+  </si>
+  <si>
+    <t>GỐM SỨ BÁT TRÀNG - GỐM PLUS</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/gomplus.com.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.484664996.16565584783</t>
+  </si>
+  <si>
+    <t>vườn tí hon bốn mùa</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiongtihon99</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.17886072479;https://shopee.vn/senda-i.869590160.17886072479;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.19848847020;https://shopee.vn/senda-i.869590160.17886072479;https://shopee.vn/senda-i.869590160.21348866039</t>
+  </si>
+  <si>
+    <t>bancaycotam</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/bancaycotam</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.730672270.15791339339;https://shopee.vn/senda-i.730672270.14268566079;https://shopee.vn/senda-i.730672270.18504635764;https://shopee.vn/senda-i.730672270.15791339339;https://shopee.vn/senda-i.730672270.15791339339;https://shopee.vn/senda-i.730672270.20955078123;https://shopee.vn/senda-i.730672270.15791339339;https://shopee.vn/senda-i.730672270.20955078123;https://shopee.vn/senda-i.730672270.15791339339;https://shopee.vn/senda-i.730672270.20955078123;https://shopee.vn/senda-i.730672270.14968781830;https://shopee.vn/senda-i.730672270.14891894310;https://shopee.vn/senda-i.730672270.14268566079;https://shopee.vn/senda-i.730672270.14268566079;https://shopee.vn/senda-i.730672270.14891894310;https://shopee.vn/senda-i.730672270.15791339339;https://shopee.vn/senda-i.730672270.20955078123;https://shopee.vn/senda-i.730672270.14891894310;https://shopee.vn/senda-i.730672270.15791339339;https://shopee.vn/senda-i.730672270.20955078123;https://shopee.vn/senda-i.730672270.14968781830;https://shopee.vn/senda-i.730672270.20313060510;https://shopee.vn/senda-i.730672270.14268566079;https://shopee.vn/senda-i.730672270.20604638142;https://shopee.vn/senda-i.730672270.21745089232;https://shopee.vn/senda-i.730672270.18504635764;https://shopee.vn/senda-i.730672270.19911853152;https://shopee.vn/senda-i.730672270.21809724740</t>
+  </si>
+  <si>
+    <t>hot_deal_hot_sale</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hot_deal_hot_sale</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.17000341354;https://shopee.vn/senda-i.126269153.21701273900;https://shopee.vn/senda-i.126269153.17000341354</t>
+  </si>
+  <si>
+    <t>Vật tư Nông Nghiệp Greenhua</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/quyen0708</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.28121108.8552883779;https://shopee.vn/senda-i.28121108.8552883779;https://shopee.vn/senda-i.28121108.8552883779;https://shopee.vn/senda-i.28121108.8552883779;https://shopee.vn/senda-i.28121108.8552883779;https://shopee.vn/senda-i.28121108.8552883779;https://shopee.vn/senda-i.28121108.8552883779</t>
+  </si>
+  <si>
+    <t>PANDAA Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/pandaagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.177406539.13795913653;https://shopee.vn/senda-i.177406539.13795913653;https://shopee.vn/senda-i.177406539.13795913653;https://shopee.vn/senda-i.177406539.9063050884;https://shopee.vn/senda-i.177406539.17779949524</t>
+  </si>
+  <si>
+    <t>NeyuhGarden-caycanhchaucanh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/neyuhgarden</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.10790812818;https://shopee.vn/senda-i.508867743.13996882336;https://shopee.vn/senda-i.508867743.9490301987;https://shopee.vn/senda-i.508867743.9494989249</t>
+  </si>
+  <si>
+    <t>Senshopcantho</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senshop97</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.14063211656;https://shopee.vn/senda-i.53726671.8175930603;https://shopee.vn/senda-i.53726671.13476101699;https://shopee.vn/senda-i.53726671.16237429488</t>
+  </si>
+  <si>
+    <t>OHHAND Made</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/ohhandhandmade</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.850872373.18039575935</t>
+  </si>
+  <si>
+    <t>shopngoclan</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shopngoclan</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.3804675.13150643056;https://shopee.vn/senda-i.3804675.14372670231;https://shopee.vn/senda-i.3804675.16069709967</t>
+  </si>
+  <si>
+    <t>HẠT GIỐNG NHẬP KHẨU</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiongnhapkhaunamchau</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.100546549.7969462595;https://shopee.vn/senda-i.100546549.7969462595;https://shopee.vn/senda-i.100546549.7969462595</t>
+  </si>
+  <si>
+    <t>MHKshop</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/mochoashopping</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.290696549.3977080184;https://shopee.vn/senda-i.290696549.3977080184;https://shopee.vn/senda-i.290696549.3977080184</t>
+  </si>
+  <si>
+    <t>Nia Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/niagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.38147564.4159162536;https://shopee.vn/senda-i.38147564.4159162536;https://shopee.vn/senda-i.38147564.4159162536;https://shopee.vn/senda-i.38147564.11103718663;https://shopee.vn/senda-i.38147564.11103718663</t>
+  </si>
+  <si>
+    <t>TGPhandmade</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/tgphandmade</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.207554675.8462121494;https://shopee.vn/senda-i.207554675.8462121494;https://shopee.vn/senda-i.207554675.8462121494</t>
+  </si>
+  <si>
+    <t>Hạt Giống-Dụng Cụ Nông Nghiệp</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vattudungcunongnghiep</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.5807008218;https://shopee.vn/senda-i.81077189.8722834427</t>
+  </si>
+  <si>
+    <t>NHÀ  XANH</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nhaxanh.95</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.82659762.21413172175;https://shopee.vn/senda-i.82659762.11121254271;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.17086099111;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.17086099111;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.17086099111;https://shopee.vn/senda-i.82659762.12930595854;https://shopee.vn/senda-i.82659762.21647729720;https://shopee.vn/senda-i.82659762.11821255285;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.11820136013;https://shopee.vn/senda-i.82659762.17086099111;https://shopee.vn/senda-i.82659762.19363371205;https://shopee.vn/senda-i.82659762.12930595854;https://shopee.vn/senda-i.82659762.21647729720;https://shopee.vn/senda-i.82659762.11821255285;https://shopee.vn/senda-i.82659762.21711700708;https://shopee.vn/senda-i.82659762.18163677489;https://shopee.vn/senda-i.82659762.13697032732;https://shopee.vn/senda-i.82659762.12242175810;https://shopee.vn/senda-i.82659762.21936066786;https://shopee.vn/senda-i.82659762.14993234112;https://shopee.vn/senda-i.82659762.17575903198</t>
+  </si>
+  <si>
+    <t>Decor &amp; Quà Tặng Blove Gift</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/pktrangtrinhacua</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.204783752.7568800100;https://shopee.vn/senda-i.204783752.7619936065;https://shopee.vn/senda-i.204783752.7619936065;https://shopee.vn/senda-i.204783752.7568800100</t>
+  </si>
+  <si>
+    <t>Milamaz Shop</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/milamaz050719</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.227692865.6843275221;https://shopee.vn/senda-i.227692865.4133198123;https://shopee.vn/senda-i.227692865.7518239482;https://shopee.vn/senda-i.227692865.6843275221;https://shopee.vn/senda-i.227692865.4133198123;https://shopee.vn/senda-i.227692865.7518239482;https://shopee.vn/senda-i.227692865.6843275221;https://shopee.vn/senda-i.227692865.4133198123;https://shopee.vn/senda-i.227692865.7432233025;https://shopee.vn/senda-i.227692865.8856581889</t>
+  </si>
+  <si>
+    <t>Vườn nhà Tintin</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/tintin.garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.56889063.17472919552;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.17472919552;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.18750201594;https://shopee.vn/senda-i.56889063.17472919552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nông trại sen đá </t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nongtraisenda.dl</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.33031485.16555054183</t>
+  </si>
+  <si>
+    <t>Vườn sen đá bmt - đaklak</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/1leetrinh1989</t>
+  </si>
+  <si>
+    <t>Đắk Lắk</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.41949381.7715183371;https://shopee.vn/senda-i.41949381.7715183371;https://shopee.vn/senda-i.41949381.7715183371;https://shopee.vn/senda-i.41949381.7715183371;https://shopee.vn/senda-i.41949381.7715183371;https://shopee.vn/senda-i.41949381.7715183371;https://shopee.vn/senda-i.41949381.7715183371;https://shopee.vn/senda-i.41949381.7715183371</t>
+  </si>
+  <si>
+    <t>Hân Hân Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/ngandang29995</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.1837442.16628426476;https://shopee.vn/senda-i.1837442.16674418807;https://shopee.vn/senda-i.1837442.15033808815;https://shopee.vn/senda-i.1837442.11390646598;https://shopee.vn/senda-i.1837442.21738071199;https://shopee.vn/senda-i.1837442.16120731125;https://shopee.vn/senda-i.1837442.17554925456;https://shopee.vn/senda-i.1837442.21101461774</t>
+  </si>
+  <si>
+    <t>HẠT GIỐNG GIÁ SIÊU RẺ</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shophatgiare</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.340479251.7164916464</t>
+  </si>
+  <si>
+    <t>Handy Garden vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/handygarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.3415225.6971841393;https://shopee.vn/senda-i.3415225.8676228816</t>
+  </si>
+  <si>
+    <t>TORO Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/torogarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.223800411.9533256616;https://shopee.vn/senda-i.223800411.8276146330;https://shopee.vn/senda-i.223800411.6889353448;https://shopee.vn/senda-i.223800411.6091947457;https://shopee.vn/senda-i.223800411.20543906229</t>
+  </si>
+  <si>
+    <t>Vườn Cây Bắt Mồi Happy Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuoncaybatmoi</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106;https://shopee.vn/senda-i.75680632.6617757106</t>
+  </si>
+  <si>
+    <t>boybongarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/boybongarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.75156973.3810035996;https://shopee.vn/senda-i.75156973.3152252086;https://shopee.vn/senda-i.75156973.5336333475;https://shopee.vn/senda-i.75156973.19757278140;https://shopee.vn/senda-i.75156973.3591467648;https://shopee.vn/senda-i.75156973.18757280875</t>
+  </si>
+  <si>
+    <t>vuonsenda_68</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuonsenda_68</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.443604987.21059270700;https://shopee.vn/senda-i.443604987.22403389799;https://shopee.vn/senda-i.443604987.22403389799;https://shopee.vn/senda-i.443604987.22403389799;https://shopee.vn/senda-i.443604987.21059270700;https://shopee.vn/senda-i.443604987.22403389799;https://shopee.vn/senda-i.443604987.21059270700;https://shopee.vn/senda-i.443604987.22403389799;https://shopee.vn/senda-i.443604987.21059270700;https://shopee.vn/senda-i.443604987.18559243854;https://shopee.vn/senda-i.443604987.21159325451;https://shopee.vn/senda-i.443604987.22403389799;https://shopee.vn/senda-i.443604987.21059270700;https://shopee.vn/senda-i.443604987.22403389799;https://shopee.vn/senda-i.443604987.21059270700;https://shopee.vn/senda-i.443604987.18559243854;https://shopee.vn/senda-i.443604987.21059270700</t>
+  </si>
+  <si>
+    <t>Vườn Xanh Bình Thạnh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/chau1chau2</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.800787222.21131007718;https://shopee.vn/senda-i.800787222.21131007718;https://shopee.vn/senda-i.800787222.21131007718;https://shopee.vn/senda-i.800787222.21131007718;https://shopee.vn/senda-i.800787222.21131007718;https://shopee.vn/senda-i.800787222.21131007718</t>
+  </si>
+  <si>
+    <t>YUMMYSTORE3</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/yummystore3</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.397845058.12370305174;https://shopee.vn/senda-i.397845058.12370305174;https://shopee.vn/senda-i.397845058.12370305174;https://shopee.vn/senda-i.397845058.8598042569;https://shopee.vn/senda-i.397845058.12370305174;https://shopee.vn/senda-i.397845058.8598042569;https://shopee.vn/senda-i.397845058.15038741533</t>
+  </si>
+  <si>
+    <t>SendaChiTa</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendachita</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.10405965062;https://shopee.vn/senda-i.420538152.5289673907;https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.8558076750;https://shopee.vn/senda-i.420538152.5289673907</t>
+  </si>
+  <si>
+    <t>nguyenyenyen14</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/phuongthaoj14</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.89669144.21308558352;https://shopee.vn/senda-i.89669144.21308558352;https://shopee.vn/senda-i.89669144.21308558352;https://shopee.vn/senda-i.89669144.21308558352;https://shopee.vn/senda-i.89669144.21308558352;https://shopee.vn/senda-i.89669144.21308558352;https://shopee.vn/senda-i.89669144.21308558352;https://shopee.vn/senda-i.89669144.21308558352</t>
+  </si>
+  <si>
+    <t>Cây Nhà Làm - Homemade Tree</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caynhalam.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.514275917.12428030063;https://shopee.vn/senda-i.514275917.12428030063;https://shopee.vn/senda-i.514275917.12428030063;https://shopee.vn/senda-i.514275917.12428030063;https://shopee.vn/senda-i.514275917.12428030063;https://shopee.vn/senda-i.514275917.12428030063;https://shopee.vn/senda-i.514275917.12428030063;https://shopee.vn/senda-i.514275917.12428030063</t>
+  </si>
+  <si>
+    <t>Saha - SaveHandmade</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/dung5995</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.34115351.8070485463;https://shopee.vn/senda-i.34115351.8070485463;https://shopee.vn/senda-i.34115351.8070485463</t>
+  </si>
+  <si>
+    <t>thefakeshop</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/thefakeshop</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.792245762.16574247953;https://shopee.vn/senda-i.792245762.16574247953;https://shopee.vn/senda-i.792245762.16574247953;https://shopee.vn/senda-i.792245762.14387327980;https://shopee.vn/senda-i.792245762.19310650445;https://shopee.vn/senda-i.792245762.16574247953;https://shopee.vn/senda-i.792245762.19310650445;https://shopee.vn/senda-i.792245762.18410656146</t>
+  </si>
+  <si>
+    <t>LynLyn Decor</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/songan1210</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.31662504.21135674730;https://shopee.vn/senda-i.31662504.21135674730;https://shopee.vn/senda-i.31662504.21135674730;https://shopee.vn/senda-i.31662504.21135674730;https://shopee.vn/senda-i.31662504.21135674730;https://shopee.vn/senda-i.31662504.21135674730;https://shopee.vn/senda-i.31662504.21135674730</t>
+  </si>
+  <si>
+    <t>thurio</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/thurio</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.46494638.18923990472;https://shopee.vn/senda-i.46494638.18923990472;https://shopee.vn/senda-i.46494638.18923990472;https://shopee.vn/senda-i.46494638.18923990472;https://shopee.vn/senda-i.46494638.19218459859;https://shopee.vn/senda-i.46494638.19218459859;https://shopee.vn/senda-i.46494638.19218459859</t>
+  </si>
+  <si>
+    <t>Sen Đá Xương Rồng</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shopsenda93</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.393968715.9050287410;https://shopee.vn/senda-i.393968715.9050287410;https://shopee.vn/senda-i.393968715.9050287410;https://shopee.vn/senda-i.393968715.9050287410;https://shopee.vn/senda-i.393968715.14970256391;https://shopee.vn/senda-i.393968715.9050287410;https://shopee.vn/senda-i.393968715.9050287410;https://shopee.vn/senda-i.393968715.14970256391</t>
+  </si>
+  <si>
+    <t>huongtony</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/mocchau_garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.236562748.12042369128;https://shopee.vn/senda-i.236562748.12042369128;https://shopee.vn/senda-i.236562748.12042369128;https://shopee.vn/senda-i.236562748.12042369128;https://shopee.vn/senda-i.236562748.12042369128;https://shopee.vn/senda-i.236562748.12042369128</t>
+  </si>
+  <si>
+    <t>Vườn Hạnh Phúc Thủ Đức</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuonhanhphucc</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.698130568.20145870282;https://shopee.vn/senda-i.698130568.20145870282;https://shopee.vn/senda-i.698130568.20145870282;https://shopee.vn/senda-i.698130568.20145870282;https://shopee.vn/senda-i.698130568.20145870282;https://shopee.vn/senda-i.698130568.15385204827</t>
+  </si>
+  <si>
+    <t>sendacoffe</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/cuctuskafe</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.243725644.6327451534;https://shopee.vn/senda-i.243725644.6327451534;https://shopee.vn/senda-i.243725644.6327451534;https://shopee.vn/senda-i.243725644.4227454662;https://shopee.vn/senda-i.243725644.6327451534;https://shopee.vn/senda-i.243725644.6327451534;https://shopee.vn/senda-i.243725644.4227454662</t>
+  </si>
+  <si>
+    <t>linhhoang199</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendabancong221</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.64841506.11975607255;https://shopee.vn/senda-i.64841506.11975607255;https://shopee.vn/senda-i.64841506.11975607255;https://shopee.vn/senda-i.64841506.11975607255;https://shopee.vn/senda-i.64841506.11975607255;https://shopee.vn/senda-i.64841506.14801025343</t>
+  </si>
+  <si>
+    <t>Mê Sen Đá</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/mesenda</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.469713768.18046102223;https://shopee.vn/senda-i.469713768.18046102223;https://shopee.vn/senda-i.469713768.18046102223;https://shopee.vn/senda-i.469713768.18046102223</t>
+  </si>
+  <si>
+    <t>Thế Giới Rau Mầm</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/thegioiraumam</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.6088954.3923350270;https://shopee.vn/senda-i.6088954.3923350270;https://shopee.vn/senda-i.6088954.3923350270;https://shopee.vn/senda-i.6088954.3923350270</t>
+  </si>
+  <si>
+    <t>Green House - Ngôi nhà xanh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/greenhouse.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.392489315.8341328872;https://shopee.vn/senda-i.392489315.8341328872;https://shopee.vn/senda-i.392489315.8341328872;https://shopee.vn/senda-i.392489315.8341328872</t>
+  </si>
+  <si>
+    <t>hatgiongdatvietseedgiasi</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/datvietseed</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.400163175.6681227226;https://shopee.vn/senda-i.400163175.6681227226;https://shopee.vn/senda-i.400163175.6681227226</t>
+  </si>
+  <si>
+    <t>RUBY garden 110</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shop_ruby110</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.7242225.16967219837;https://shopee.vn/senda-i.7242225.16967219837;https://shopee.vn/senda-i.7242225.16967219837;https://shopee.vn/senda-i.7242225.16967219837</t>
+  </si>
+  <si>
+    <t>Caycanh146</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caycanh146</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.289909442.21458663777;https://shopee.vn/senda-i.289909442.21458663777;https://shopee.vn/senda-i.289909442.21458663777</t>
+  </si>
+  <si>
+    <t>Vuonsendadalat91</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/melistore91</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.27504246.8564089698;https://shopee.vn/senda-i.27504246.8564089698;https://shopee.vn/senda-i.27504246.8564089698;https://shopee.vn/senda-i.27504246.14575048186;https://shopee.vn/senda-i.27504246.10912110402;https://shopee.vn/senda-i.27504246.9020695861;https://shopee.vn/senda-i.27504246.9268065066</t>
+  </si>
+  <si>
+    <t>YOLO 499199</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/linh1115</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.232763592.22506456274;https://shopee.vn/senda-i.232763592.12397637065;https://shopee.vn/senda-i.232763592.12397637065;https://shopee.vn/senda-i.232763592.22506456274</t>
+  </si>
+  <si>
+    <t>Sen Đá &amp; Kiểng Lá TUHAi FARM</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nongnghiepthanhpho</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.419872573.10710058270;https://shopee.vn/senda-i.419872573.5388738094;https://shopee.vn/senda-i.419872573.12559898928;https://shopee.vn/senda-i.419872573.10710058270;https://shopee.vn/senda-i.419872573.5388738094;https://shopee.vn/senda-i.419872573.12559898928;https://shopee.vn/senda-i.419872573.6688342213;https://shopee.vn/senda-i.419872573.10276271556;https://shopee.vn/senda-i.419872573.14230125921;https://shopee.vn/senda-i.419872573.9358644204;https://shopee.vn/senda-i.419872573.15315692090;https://shopee.vn/senda-i.419872573.8948609373;https://shopee.vn/senda-i.419872573.10600048275;https://shopee.vn/senda-i.419872573.8172695323</t>
+  </si>
+  <si>
+    <t>Yêu Cây Xanh Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/yeucayxanh.garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.252686087.5767286601;https://shopee.vn/senda-i.252686087.5767286601</t>
+  </si>
+  <si>
+    <t>SHOP HẠT GIỐNG 5đ</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiong5k</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.344579223.3872132679;https://shopee.vn/senda-i.344579223.3872132679</t>
+  </si>
+  <si>
+    <t>STONE LOTUS - Khu vườn sen đá</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/stonelotus</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.827719538.18328277807;https://shopee.vn/senda-i.827719538.18328277807</t>
+  </si>
+  <si>
+    <t>Lolita garden</t>
   </si>
   <si>
     <t>https://shopee.vn/lolita.garden</t>
   </si>
   <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
-    <t>https://shopee.vn/Sen-%C4%91%C3%A1-mini-%C4%90%C3%A0-L%E1%BA%A1t-6-lo%E1%BA%A1i-ng%E1%BA%ABu-nhi%C3%AAn-c%C3%A2y-c%E1%BA%A3nh-trang-tr%C3%AD-nh%C3%A0-c%E1%BB%ADa-Lolita-garden-i.423320956.10142150994</t>
-  </si>
-  <si>
-    <t>hot_deal_hot_sale</t>
-  </si>
-  <si>
-    <t>https://shopee.vn/hot_deal_hot_sale</t>
-  </si>
-  <si>
-    <t>https://shopee.vn/20-H%E1%BA%A1t-gi%E1%BB%91ng-Sen-%C4%91%C3%A1-Kim-c%C6%B0%C6%A1ng-(t%E1%BA%B7ng-g%C3%B3i-K%C3%ADch-n%E1%BA%A9y-m%E1%BA%A7m-v%C3%A0-H%C6%B0%E1%BB%9Bng-d%E1%BA%ABn)-i.126269153.17000341354</t>
+    <t>https://shopee.vn/senda-i.423320956.12953952556;https://shopee.vn/senda-i.423320956.5586256442;https://shopee.vn/senda-i.423320956.12953952556;https://shopee.vn/senda-i.423320956.5586256442;https://shopee.vn/senda-i.423320956.10142150994;https://shopee.vn/senda-i.423320956.13808264750</t>
+  </si>
+  <si>
+    <t>Cô Thỏ store</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/thao869073</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.66830226.5138371452</t>
+  </si>
+  <si>
+    <t>Kiến Decor</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shopkien</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.11275484.14466202985;https://shopee.vn/senda-i.11275484.14466202985</t>
+  </si>
+  <si>
+    <t>cucuthong1</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/cucuthong1</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.69678963.5669130239;https://shopee.vn/senda-i.69678963.5669130239</t>
+  </si>
+  <si>
+    <t>SENDAKA</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/tranthikyanh</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.136388164.4550494253;https://shopee.vn/senda-i.136388164.4550494253</t>
+  </si>
+  <si>
+    <t>thanhha1984</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/thanhha1984</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.5861626.6526724627;https://shopee.vn/senda-i.5861626.6526724627;https://shopee.vn/senda-i.5861626.8600689418;https://shopee.vn/senda-i.5861626.5227117994;https://shopee.vn/senda-i.5861626.2001849687</t>
+  </si>
+  <si>
+    <t>Thoabinbin</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/thoabinbin</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.6572507.10417498558;https://shopee.vn/senda-i.6572507.10417498558</t>
+  </si>
+  <si>
+    <t>Vườn nhà Chúc</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nhavuoncaycanhannhien</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.90540050.5938088725;https://shopee.vn/senda-i.90540050.5938088725</t>
+  </si>
+  <si>
+    <t>NaVy_Farm</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/navy_farm</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.480485778.15430981089;https://shopee.vn/senda-i.480485778.15430981089</t>
+  </si>
+  <si>
+    <t>HẠT GIỐNG ĐỒNG GIÁ.</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiongthegioitoancau</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.343984344.7165289715;https://shopee.vn/senda-i.343984344.7165289715</t>
+  </si>
+  <si>
+    <t>Mom's Farm</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/mom_farm</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.571886332.14840678965;https://shopee.vn/senda-i.571886332.12435646210;https://shopee.vn/senda-i.571886332.12435646210;https://shopee.vn/senda-i.571886332.12435646210</t>
+  </si>
+  <si>
+    <t>Anna Garden- Sen đá Tân An</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendatanan</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.41529669.15822171508;https://shopee.vn/senda-i.41529669.15822171508</t>
+  </si>
+  <si>
+    <t>Green The Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/greenthegarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.206467753.11274262263;https://shopee.vn/senda-i.206467753.11274262263;https://shopee.vn/senda-i.206467753.15408225033;https://shopee.vn/senda-i.206467753.11274262263;https://shopee.vn/senda-i.206467753.15408225033;https://shopee.vn/senda-i.206467753.20260662785;https://shopee.vn/senda-i.206467753.12857695394</t>
+  </si>
+  <si>
+    <t>NguyênĐăngGarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/mekongriverside66</t>
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.70126331.20063962189;https://shopee.vn/senda-i.70126331.20063962189;https://shopee.vn/senda-i.70126331.20760551559</t>
+  </si>
+  <si>
+    <t>Vườn Nhỏ Của Tôi</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/n2duyenloc</t>
+  </si>
+  <si>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.144763058.22208155106;https://shopee.vn/senda-i.144763058.22208155106</t>
+  </si>
+  <si>
+    <t>thuygeo</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/thuygeo</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.8404283.6636411069;https://shopee.vn/senda-i.8404283.6636411069</t>
+  </si>
+  <si>
+    <t>Vuonsennho.SUNgarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuonsennho</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.321186967.20600895851;https://shopee.vn/senda-i.321186967.20600895851;https://shopee.vn/senda-i.321186967.21200898119</t>
+  </si>
+  <si>
+    <t>Trại ươm sen xứ nóng</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendaxunong</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.352952614.4976914809;https://shopee.vn/senda-i.352952614.4976914809</t>
+  </si>
+  <si>
+    <t>Ngochuyen123</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/bichngoc705</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.27811601.3538161166;https://shopee.vn/senda-i.27811601.3538161166;https://shopee.vn/senda-i.27811601.3045042186;https://shopee.vn/senda-i.27811601.3045042186;https://shopee.vn/senda-i.27811601.5334470532</t>
+  </si>
+  <si>
+    <t>ba_to</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nhadua_2409</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.75745183.21013534995;https://shopee.vn/senda-i.75745183.21013534995</t>
+  </si>
+  <si>
+    <t>HOA GIẢ - Shop LIZ Flower</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/liz.flower</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.174699083.8355250603;https://shopee.vn/senda-i.174699083.8355250603;https://shopee.vn/senda-i.174699083.8355250603</t>
+  </si>
+  <si>
+    <t>Cây Đẹp Lạ</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/doxinhshop</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.25715545.1063986007;https://shopee.vn/senda-i.25715545.955411760</t>
+  </si>
+  <si>
+    <t>hatgionghchat</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgionghchat</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.792937402.20710934553;https://shopee.vn/senda-i.792937402.20710934553</t>
+  </si>
+  <si>
+    <t>K_Mộc Nhiên Sen Đá</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sulyhongloan</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.67456708.6060029186;https://shopee.vn/senda-i.67456708.6060029186</t>
+  </si>
+  <si>
+    <t>Làm Vườn Cùng Miu</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/lamvuoncungmiu</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.254718628.3094435208;https://shopee.vn/senda-i.254718628.3094435208;https://shopee.vn/senda-i.254718628.13745385090;https://shopee.vn/senda-i.254718628.3094435208</t>
+  </si>
+  <si>
+    <t>hatgiongphudienvn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiongphudien.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.267200693.5335419078;https://shopee.vn/senda-i.267200693.5335419078</t>
+  </si>
+  <si>
+    <t>Sen đá Hà nội nè</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/579hht</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.818864736.17379371312;https://shopee.vn/senda-i.818864736.17379371312</t>
+  </si>
+  <si>
+    <t>Moon and Mun</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/locchoc2909</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.69283472.5211307581;https://shopee.vn/senda-i.69283472.5211307581;https://shopee.vn/senda-i.69283472.6305138540;https://shopee.vn/senda-i.69283472.4306928868;https://shopee.vn/senda-i.69283472.5418348223;https://shopee.vn/senda-i.69283472.6706201420</t>
+  </si>
+  <si>
+    <t>Nguyên sỏi garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nguyenviplng01</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.342367384.4687855199;https://shopee.vn/senda-i.342367384.4687855199</t>
+  </si>
+  <si>
+    <t>shop_anh_van_1995</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shop_anh_van_1995</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.419521283.11513176531;https://shopee.vn/senda-i.419521283.11513176531</t>
+  </si>
+  <si>
+    <t>Hồng Cây Cảnh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caycanhmshong</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.335411428.12976995180;https://shopee.vn/senda-i.335411428.12976995180</t>
+  </si>
+  <si>
+    <t>Miko_Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/01634243648zz</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.74818892.21956241607;https://shopee.vn/senda-i.74818892.19059003402;https://shopee.vn/senda-i.74818892.22203200890</t>
+  </si>
+  <si>
+    <t>Ngọc Trâm 0706</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/ngoctran07062001</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.421610391.21753306898</t>
+  </si>
+  <si>
+    <t>Sen Đá Ngọc Bích</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/giangkoi_1296.</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.6596946.11497563317</t>
+  </si>
+  <si>
+    <t>Tiệm cây cảnh Green garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/green_garden_1990</t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.64667200.11430080752;https://shopee.vn/senda-i.64667200.12166288803</t>
+  </si>
+  <si>
+    <t>Sen đá lâm hà</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendalamha</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.295442714.18418362689</t>
+  </si>
+  <si>
+    <t>BAOLOCSENDA</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendabaoloc_1710</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.119891064.7179987571;https://shopee.vn/senda-i.119891064.7179987571;https://shopee.vn/senda-i.119891064.10482764052;https://shopee.vn/senda-i.119891064.14186903417</t>
+  </si>
+  <si>
+    <t>Yeucay.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/uytinladanhdu</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.19486155.1016410025;https://shopee.vn/senda-i.19486155.3912510015</t>
+  </si>
+  <si>
+    <t>donedone95</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/donedone95</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.121194283.18319769292</t>
+  </si>
+  <si>
+    <t>SendaHD garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/dieuhuynhkk</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.203800444.23303916989;https://shopee.vn/senda-i.203800444.18263453406</t>
+  </si>
+  <si>
+    <t>Vườn Sen Mông - Piggy Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/piggygarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.872349670.22205404267;https://shopee.vn/senda-i.872349670.21662379720;https://shopee.vn/senda-i.872349670.21662379720</t>
+  </si>
+  <si>
+    <t>Stressdecor</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/stressdecor</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.900345190.18162584711</t>
+  </si>
+  <si>
+    <t>VUON NHA QUYNH</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuon_nha_quynh</t>
+  </si>
+  <si>
+    <t>Đắk Nông</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.542571031.13913563042;https://shopee.vn/senda-i.542571031.13913563042</t>
+  </si>
+  <si>
+    <t>Kho Sỉ Hạt Giống Tốt</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nhat.caovan</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.27486684.3623640825;https://shopee.vn/senda-i.27486684.7823543955;https://shopee.vn/senda-i.27486684.3623640825;https://shopee.vn/senda-i.27486684.3337241919</t>
+  </si>
+  <si>
+    <t>CÂY CẢNH CHERRY</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caycanhcherry</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.2062855.5963661006</t>
+  </si>
+  <si>
+    <t>mayagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/mayaagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.781074682.20817905089;https://shopee.vn/senda-i.781074682.20026177660</t>
+  </si>
+  <si>
+    <t>LaFa Garden - Vườn Hoa Đẹp</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/lafagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.117741865.21627206683;https://shopee.vn/senda-i.117741865.7217826000</t>
+  </si>
+  <si>
+    <t>diep4031</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuoncay_mocduc13</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.121940478.16270301261;https://shopee.vn/senda-i.121940478.18704818017</t>
+  </si>
+  <si>
+    <t>Hoa 365</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hoa_365</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.18038823.23202800998;https://shopee.vn/senda-i.18038823.17484249910;https://shopee.vn/senda-i.18038823.19161276181</t>
+  </si>
+  <si>
+    <t>hatgiongphunong.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiongphunong.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.344007440.12567978661</t>
+  </si>
+  <si>
+    <t>sen Đá Khủng Long</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendakhunglong</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.456020264.18800530626;https://shopee.vn/senda-i.456020264.21647092976;https://shopee.vn/senda-i.456020264.21100066682</t>
+  </si>
+  <si>
+    <t>CÂY TƯƠI NGUYÊN</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caytuoinguyen</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.399930329.21342151747</t>
+  </si>
+  <si>
+    <t>Còi's Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/be_coi_shop</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.46174898.8242652506</t>
+  </si>
+  <si>
+    <t>SHOP HẠT GIỐNG 5K</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shophatgiong20k</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.344565999.7772021071;https://shopee.vn/senda-i.344565999.7872017946</t>
+  </si>
+  <si>
+    <t>shop_thanhly</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shop_thanhly</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.31593055.757565831</t>
+  </si>
+  <si>
+    <t>vuon_trang_tri_charms</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/cay_trang_tri_charms</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.506120926.17032804437</t>
+  </si>
+  <si>
+    <t>Cây Cảnh Hà Nội H2</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caycanhhanoih2</t>
+  </si>
+  <si>
+    <t>Bắc Kạn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.475207312.4194589951;https://shopee.vn/senda-i.475207312.4194589951</t>
+  </si>
+  <si>
+    <t>bandagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/bandagarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.728473511.19912590976</t>
+  </si>
+  <si>
+    <t>phanminhanh1707</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/phanminhanh1707g8y</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.49242283.4888088036;https://shopee.vn/senda-i.49242283.17228787795</t>
+  </si>
+  <si>
+    <t>SP' Garden - Sen đá Bến Tre</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sp_house8291</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.13567708.13693127100</t>
+  </si>
+  <si>
+    <t>succulents garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/dannhu1911</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.327351572.21233392739</t>
+  </si>
+  <si>
+    <t>Phạm Organic Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/dearboy2015</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.51467930.8305634413</t>
+  </si>
+  <si>
+    <t>Shop Sỉ Hạt Giống</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shopsihatgiong</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.136719913.2589604015</t>
+  </si>
+  <si>
+    <t>ĐÀ LẠT 2</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/dalat_2</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.489946917.11127823748;https://shopee.vn/senda-i.489946917.11029084434</t>
+  </si>
+  <si>
+    <t>vuon_cay_canh_trang_tri_charms</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuon_cay_canh_trang_tri_charms</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.502818907.12047796533;https://shopee.vn/senda-i.502818907.11726658214</t>
+  </si>
+  <si>
+    <t>Totto-Chan Garden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/tiemtottochan</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.365189817.15708787433</t>
+  </si>
+  <si>
+    <t>Ann Concept - Sen Đá Đà Lạt</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/annconcept_dalat</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.53923033.20527371491</t>
+  </si>
+  <si>
+    <t>Ca Nhà Jin</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiong1001</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.221357887.8306967314</t>
+  </si>
+  <si>
+    <t>Garden Kids</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/gardenkids</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.233534477.5632279167</t>
+  </si>
+  <si>
+    <t>Naomi Garden - Sen đá</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/naomigarden</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.40930858.15230334757</t>
+  </si>
+  <si>
+    <t>shopcaygiongonl</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/shopcaygiongonl</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.79773779.2795997959</t>
+  </si>
+  <si>
+    <t>Dalat_senda</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/dalatsenda</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.481690046.11849830798;https://shopee.vn/senda-i.481690046.10350548652</t>
+  </si>
+  <si>
+    <t>caomylequyen</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caomylequyen</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.95834499.11702708871</t>
+  </si>
+  <si>
+    <t>Shop Sen Đá Ruby</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendaruby</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.44146154.5407655021;https://shopee.vn/senda-i.44146154.6310472633</t>
+  </si>
+  <si>
+    <t>Shop An Nhiên Cây Cảnh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vuoncaycanhannhiengiatot</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.128399793.3839619762</t>
+  </si>
+  <si>
+    <t>Sen đá 1824</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nhungwan</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.13615358.9024829026</t>
+  </si>
+  <si>
+    <t>Vườn Sen Đá_HDT</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sky_gardenn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.674970400.16921441261</t>
+  </si>
+  <si>
+    <t>Yeusenda.com</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/yeusenda.store</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.97101777.4864912754;https://shopee.vn/senda-i.97101777.4864912754</t>
+  </si>
+  <si>
+    <t>Hạt giống rau củ quả HANOISEED</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiongraucuquahanoiseed</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.628652152.19039554779;https://shopee.vn/senda-i.628652152.19039554779</t>
+  </si>
+  <si>
+    <t>Phân bón hoa hồng ROSAVA</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/rosava.vn</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.202499122.5208324921</t>
+  </si>
+  <si>
+    <t>yenoanhkk</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/yenoanhkk</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.51963431.9572869011</t>
+  </si>
+  <si>
+    <t>le_nhat_phuong.20123</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda_phuong46</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.124004632.10181077908</t>
+  </si>
+  <si>
+    <t>Vật tư trồng lan</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/vat_tu</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.32770552.10286078242</t>
+  </si>
+  <si>
+    <t>Huonghinshop online</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nguyenthihuongnghiadao</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.82225294.7965477641</t>
+  </si>
+  <si>
+    <t>caycanh789</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/caycanh789</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.169889804.7134512707</t>
+  </si>
+  <si>
+    <t>Vật Tư Cây Trồng ViaHeGarden</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/viaheshop</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.339373514.15374774516</t>
+  </si>
+  <si>
+    <t>Xuanthanh005</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/xuong.rong.sao.bien</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.244133861.19713206924</t>
+  </si>
+  <si>
+    <t>Cây và hoa hoét</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/duyanhd13vt2</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.181237850.5268984259</t>
+  </si>
+  <si>
+    <t>Tiệm Sen Đá Hà Nam</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/tiemsendacogarden</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.392118228.9535630992</t>
+  </si>
+  <si>
+    <t>hatgiong_kimcuong</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/hatgiong_tot</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.203264203.15351354726</t>
+  </si>
+  <si>
+    <t>adamshop89 - Hoa Giả Cây Giả</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/adamshop89</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.54747439.5287201794</t>
+  </si>
+  <si>
+    <t>Sen Đá Home Bedding</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/sendahome</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/senda-i.251011639.17322758515</t>
   </si>
 </sst>
 </file>
@@ -453,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H162"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,61 +1969,2745 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
         <v>8</v>
+      </c>
+      <c r="B2">
+        <v>28117764</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="B3">
+        <v>233555165</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4">
+        <v>51191799</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5">
+        <v>332586952</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>162052707</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>7254448</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>28067799</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>160763867</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>88578215</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>72417161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>65073040</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>63180920</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>408857874</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>279041398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>66894521</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>484664996</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>869590160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>730672270</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>126269153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>28121108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>177406539</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>508867743</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>53726671</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25">
+        <v>850872373</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <v>3804675</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>100546549</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>290696549</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29">
+        <v>38147564</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30">
+        <v>207554675</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31">
+        <v>81077189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>82659762</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33">
+        <v>204783752</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>227692865</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <v>56889063</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36">
+        <v>33031485</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37">
+        <v>41949381</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38">
+        <v>1837442</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39">
+        <v>340479251</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40">
+        <v>3415225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41">
+        <v>223800411</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42">
+        <v>75680632</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43">
+        <v>75156973</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44">
+        <v>443604987</v>
+      </c>
+      <c r="E44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45">
+        <v>800787222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46">
+        <v>397845058</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47">
+        <v>420538152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48">
+        <v>89669144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49">
+        <v>514275917</v>
+      </c>
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50">
+        <v>34115351</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51">
+        <v>792245762</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52">
+        <v>31662504</v>
+      </c>
+      <c r="E52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53">
+        <v>46494638</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54">
+        <v>393968715</v>
+      </c>
+      <c r="E54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55">
+        <v>236562748</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56">
+        <v>698130568</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57">
+        <v>243725644</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>184</v>
+      </c>
+      <c r="H57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58">
+        <v>64841506</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59">
+        <v>469713768</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60">
+        <v>6088954</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61">
+        <v>392489315</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62">
+        <v>400163175</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63">
+        <v>7242225</v>
+      </c>
+      <c r="E63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64">
+        <v>289909442</v>
+      </c>
+      <c r="E64" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65">
+        <v>27504246</v>
+      </c>
+      <c r="E65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66">
+        <v>232763592</v>
+      </c>
+      <c r="E66" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67">
+        <v>419872573</v>
+      </c>
+      <c r="E67" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68">
+        <v>252686087</v>
+      </c>
+      <c r="E68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69">
+        <v>344579223</v>
+      </c>
+      <c r="E69" t="s">
+        <v>221</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70">
+        <v>827719538</v>
+      </c>
+      <c r="E70" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71">
+        <v>423320956</v>
+      </c>
+      <c r="E71" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72">
+        <v>66830226</v>
+      </c>
+      <c r="E72" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73">
+        <v>11275484</v>
+      </c>
+      <c r="E73" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74">
+        <v>69678963</v>
+      </c>
+      <c r="E74" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75">
+        <v>136388164</v>
+      </c>
+      <c r="E75" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" t="s">
+        <v>240</v>
+      </c>
+      <c r="H75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76">
+        <v>5861626</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" t="s">
+        <v>244</v>
+      </c>
+      <c r="H76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77">
+        <v>6572507</v>
+      </c>
+      <c r="E77" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78">
+        <v>90540050</v>
+      </c>
+      <c r="E78" t="s">
+        <v>250</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79">
+        <v>480485778</v>
+      </c>
+      <c r="E79" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80">
+        <v>343984344</v>
+      </c>
+      <c r="E80" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81">
+        <v>571886332</v>
+      </c>
+      <c r="E81" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82">
+        <v>41529669</v>
+      </c>
+      <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" t="s">
+        <v>263</v>
+      </c>
+      <c r="H82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83">
+        <v>206467753</v>
+      </c>
+      <c r="E83" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>268</v>
+      </c>
+      <c r="B84">
+        <v>70126331</v>
+      </c>
+      <c r="E84" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" t="s">
+        <v>270</v>
+      </c>
+      <c r="H84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>272</v>
+      </c>
+      <c r="B85">
+        <v>144763058</v>
+      </c>
+      <c r="E85" t="s">
+        <v>273</v>
+      </c>
+      <c r="F85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H85" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86">
+        <v>8404283</v>
+      </c>
+      <c r="E86" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87">
+        <v>321186967</v>
+      </c>
+      <c r="E87" t="s">
+        <v>280</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88">
+        <v>352952614</v>
+      </c>
+      <c r="E88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F88" t="s">
+        <v>122</v>
+      </c>
+      <c r="H88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>285</v>
+      </c>
+      <c r="B89">
+        <v>27811601</v>
+      </c>
+      <c r="E89" t="s">
+        <v>286</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90">
+        <v>75745183</v>
+      </c>
+      <c r="E90" t="s">
+        <v>289</v>
+      </c>
+      <c r="F90" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>291</v>
+      </c>
+      <c r="B91">
+        <v>174699083</v>
+      </c>
+      <c r="E91" t="s">
+        <v>292</v>
+      </c>
+      <c r="F91" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92">
+        <v>25715545</v>
+      </c>
+      <c r="E92" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92" t="s">
+        <v>297</v>
+      </c>
+      <c r="H92" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93">
+        <v>792937402</v>
+      </c>
+      <c r="E93" t="s">
+        <v>300</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94">
+        <v>67456708</v>
+      </c>
+      <c r="E94" t="s">
+        <v>303</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95">
+        <v>254718628</v>
+      </c>
+      <c r="E95" t="s">
+        <v>306</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96">
+        <v>267200693</v>
+      </c>
+      <c r="E96" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>311</v>
+      </c>
+      <c r="B97">
+        <v>818864736</v>
+      </c>
+      <c r="E97" t="s">
+        <v>312</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98">
+        <v>69283472</v>
+      </c>
+      <c r="E98" t="s">
+        <v>315</v>
+      </c>
+      <c r="F98" t="s">
+        <v>106</v>
+      </c>
+      <c r="H98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99">
+        <v>342367384</v>
+      </c>
+      <c r="E99" t="s">
+        <v>318</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>320</v>
+      </c>
+      <c r="B100">
+        <v>419521283</v>
+      </c>
+      <c r="E100" t="s">
+        <v>321</v>
+      </c>
+      <c r="F100" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101">
+        <v>335411428</v>
+      </c>
+      <c r="E101" t="s">
+        <v>324</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>326</v>
+      </c>
+      <c r="B102">
+        <v>74818892</v>
+      </c>
+      <c r="E102" t="s">
+        <v>327</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>329</v>
+      </c>
+      <c r="B103">
+        <v>421610391</v>
+      </c>
+      <c r="E103" t="s">
+        <v>330</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>332</v>
+      </c>
+      <c r="B104">
+        <v>6596946</v>
+      </c>
+      <c r="E104" t="s">
+        <v>333</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>335</v>
+      </c>
+      <c r="B105">
+        <v>64667200</v>
+      </c>
+      <c r="E105" t="s">
+        <v>336</v>
+      </c>
+      <c r="F105" t="s">
+        <v>337</v>
+      </c>
+      <c r="H105" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106">
+        <v>295442714</v>
+      </c>
+      <c r="E106" t="s">
+        <v>340</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>342</v>
+      </c>
+      <c r="B107">
+        <v>119891064</v>
+      </c>
+      <c r="E107" t="s">
+        <v>343</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>345</v>
+      </c>
+      <c r="B108">
+        <v>19486155</v>
+      </c>
+      <c r="E108" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>348</v>
+      </c>
+      <c r="B109">
+        <v>121194283</v>
+      </c>
+      <c r="E109" t="s">
+        <v>349</v>
+      </c>
+      <c r="F109" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>351</v>
+      </c>
+      <c r="B110">
+        <v>203800444</v>
+      </c>
+      <c r="E110" t="s">
+        <v>352</v>
+      </c>
+      <c r="F110" t="s">
+        <v>353</v>
+      </c>
+      <c r="H110" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>355</v>
+      </c>
+      <c r="B111">
+        <v>872349670</v>
+      </c>
+      <c r="E111" t="s">
+        <v>356</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>358</v>
+      </c>
+      <c r="B112">
+        <v>900345190</v>
+      </c>
+      <c r="E112" t="s">
+        <v>359</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>361</v>
+      </c>
+      <c r="B113">
+        <v>542571031</v>
+      </c>
+      <c r="E113" t="s">
+        <v>362</v>
+      </c>
+      <c r="F113" t="s">
+        <v>363</v>
+      </c>
+      <c r="H113" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114">
+        <v>27486684</v>
+      </c>
+      <c r="E114" t="s">
+        <v>366</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>368</v>
+      </c>
+      <c r="B115">
+        <v>2062855</v>
+      </c>
+      <c r="E115" t="s">
+        <v>369</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>371</v>
+      </c>
+      <c r="B116">
+        <v>781074682</v>
+      </c>
+      <c r="E116" t="s">
+        <v>372</v>
+      </c>
+      <c r="F116" t="s">
+        <v>81</v>
+      </c>
+      <c r="H116" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>374</v>
+      </c>
+      <c r="B117">
+        <v>117741865</v>
+      </c>
+      <c r="E117" t="s">
+        <v>375</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>377</v>
+      </c>
+      <c r="B118">
+        <v>121940478</v>
+      </c>
+      <c r="E118" t="s">
+        <v>378</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>380</v>
+      </c>
+      <c r="B119">
+        <v>18038823</v>
+      </c>
+      <c r="E119" t="s">
+        <v>381</v>
+      </c>
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>383</v>
+      </c>
+      <c r="B120">
+        <v>344007440</v>
+      </c>
+      <c r="E120" t="s">
+        <v>384</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>386</v>
+      </c>
+      <c r="B121">
+        <v>456020264</v>
+      </c>
+      <c r="E121" t="s">
+        <v>387</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>389</v>
+      </c>
+      <c r="B122">
+        <v>399930329</v>
+      </c>
+      <c r="E122" t="s">
+        <v>390</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>392</v>
+      </c>
+      <c r="B123">
+        <v>46174898</v>
+      </c>
+      <c r="E123" t="s">
+        <v>393</v>
+      </c>
+      <c r="F123" t="s">
+        <v>297</v>
+      </c>
+      <c r="H123" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>395</v>
+      </c>
+      <c r="B124">
+        <v>344565999</v>
+      </c>
+      <c r="E124" t="s">
+        <v>396</v>
+      </c>
+      <c r="F124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>398</v>
+      </c>
+      <c r="B125">
+        <v>31593055</v>
+      </c>
+      <c r="E125" t="s">
+        <v>399</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>401</v>
+      </c>
+      <c r="B126">
+        <v>506120926</v>
+      </c>
+      <c r="E126" t="s">
+        <v>402</v>
+      </c>
+      <c r="F126" t="s">
+        <v>81</v>
+      </c>
+      <c r="H126" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>404</v>
+      </c>
+      <c r="B127">
+        <v>475207312</v>
+      </c>
+      <c r="E127" t="s">
+        <v>405</v>
+      </c>
+      <c r="F127" t="s">
+        <v>406</v>
+      </c>
+      <c r="H127" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>408</v>
+      </c>
+      <c r="B128">
+        <v>728473511</v>
+      </c>
+      <c r="E128" t="s">
+        <v>409</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>411</v>
+      </c>
+      <c r="B129">
+        <v>49242283</v>
+      </c>
+      <c r="E129" t="s">
+        <v>412</v>
+      </c>
+      <c r="F129" t="s">
+        <v>77</v>
+      </c>
+      <c r="H129" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>414</v>
+      </c>
+      <c r="B130">
+        <v>13567708</v>
+      </c>
+      <c r="E130" t="s">
+        <v>415</v>
+      </c>
+      <c r="F130" t="s">
+        <v>416</v>
+      </c>
+      <c r="H130" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>418</v>
+      </c>
+      <c r="B131">
+        <v>327351572</v>
+      </c>
+      <c r="E131" t="s">
+        <v>419</v>
+      </c>
+      <c r="F131" t="s">
+        <v>43</v>
+      </c>
+      <c r="H131" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>421</v>
+      </c>
+      <c r="B132">
+        <v>51467930</v>
+      </c>
+      <c r="E132" t="s">
+        <v>422</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>424</v>
+      </c>
+      <c r="B133">
+        <v>136719913</v>
+      </c>
+      <c r="E133" t="s">
+        <v>425</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="H133" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>427</v>
+      </c>
+      <c r="B134">
+        <v>489946917</v>
+      </c>
+      <c r="E134" t="s">
+        <v>428</v>
+      </c>
+      <c r="F134" t="s">
+        <v>363</v>
+      </c>
+      <c r="H134" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135">
+        <v>502818907</v>
+      </c>
+      <c r="E135" t="s">
+        <v>431</v>
+      </c>
+      <c r="F135" t="s">
+        <v>81</v>
+      </c>
+      <c r="H135" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>433</v>
+      </c>
+      <c r="B136">
+        <v>365189817</v>
+      </c>
+      <c r="E136" t="s">
+        <v>434</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137">
+        <v>53923033</v>
+      </c>
+      <c r="E137" t="s">
+        <v>437</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>439</v>
+      </c>
+      <c r="B138">
+        <v>221357887</v>
+      </c>
+      <c r="E138" t="s">
+        <v>440</v>
+      </c>
+      <c r="F138" t="s">
+        <v>441</v>
+      </c>
+      <c r="H138" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>443</v>
+      </c>
+      <c r="B139">
+        <v>233534477</v>
+      </c>
+      <c r="E139" t="s">
+        <v>444</v>
+      </c>
+      <c r="F139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>446</v>
+      </c>
+      <c r="B140">
+        <v>40930858</v>
+      </c>
+      <c r="E140" t="s">
+        <v>447</v>
+      </c>
+      <c r="F140" t="s">
+        <v>448</v>
+      </c>
+      <c r="H140" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>450</v>
+      </c>
+      <c r="B141">
+        <v>79773779</v>
+      </c>
+      <c r="E141" t="s">
+        <v>451</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>453</v>
+      </c>
+      <c r="B142">
+        <v>481690046</v>
+      </c>
+      <c r="E142" t="s">
+        <v>454</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>456</v>
+      </c>
+      <c r="B143">
+        <v>95834499</v>
+      </c>
+      <c r="E143" t="s">
+        <v>457</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="H143" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144">
+        <v>44146154</v>
+      </c>
+      <c r="E144" t="s">
+        <v>460</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="H144" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>462</v>
+      </c>
+      <c r="B145">
+        <v>128399793</v>
+      </c>
+      <c r="E145" t="s">
+        <v>463</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>465</v>
+      </c>
+      <c r="B146">
+        <v>13615358</v>
+      </c>
+      <c r="E146" t="s">
+        <v>466</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>468</v>
+      </c>
+      <c r="B147">
+        <v>674970400</v>
+      </c>
+      <c r="E147" t="s">
+        <v>469</v>
+      </c>
+      <c r="F147" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>471</v>
+      </c>
+      <c r="B148">
+        <v>97101777</v>
+      </c>
+      <c r="E148" t="s">
+        <v>472</v>
+      </c>
+      <c r="F148" t="s">
+        <v>293</v>
+      </c>
+      <c r="H148" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>474</v>
+      </c>
+      <c r="B149">
+        <v>628652152</v>
+      </c>
+      <c r="E149" t="s">
+        <v>475</v>
+      </c>
+      <c r="F149" t="s">
+        <v>184</v>
+      </c>
+      <c r="H149" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>477</v>
+      </c>
+      <c r="B150">
+        <v>202499122</v>
+      </c>
+      <c r="E150" t="s">
+        <v>478</v>
+      </c>
+      <c r="F150" t="s">
+        <v>21</v>
+      </c>
+      <c r="H150" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>480</v>
+      </c>
+      <c r="B151">
+        <v>51963431</v>
+      </c>
+      <c r="E151" t="s">
+        <v>481</v>
+      </c>
+      <c r="F151" t="s">
+        <v>263</v>
+      </c>
+      <c r="H151" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>483</v>
+      </c>
+      <c r="B152">
+        <v>124004632</v>
+      </c>
+      <c r="E152" t="s">
+        <v>484</v>
+      </c>
+      <c r="F152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>486</v>
+      </c>
+      <c r="B153">
+        <v>32770552</v>
+      </c>
+      <c r="E153" t="s">
+        <v>487</v>
+      </c>
+      <c r="F153" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>489</v>
+      </c>
+      <c r="B154">
+        <v>82225294</v>
+      </c>
+      <c r="E154" t="s">
+        <v>490</v>
+      </c>
+      <c r="F154" t="s">
+        <v>491</v>
+      </c>
+      <c r="H154" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>493</v>
+      </c>
+      <c r="B155">
+        <v>169889804</v>
+      </c>
+      <c r="E155" t="s">
+        <v>494</v>
+      </c>
+      <c r="F155" t="s">
+        <v>495</v>
+      </c>
+      <c r="H155" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>497</v>
+      </c>
+      <c r="B156">
+        <v>339373514</v>
+      </c>
+      <c r="E156" t="s">
+        <v>498</v>
+      </c>
+      <c r="F156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>500</v>
+      </c>
+      <c r="B157">
+        <v>244133861</v>
+      </c>
+      <c r="E157" t="s">
+        <v>501</v>
+      </c>
+      <c r="F157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>503</v>
+      </c>
+      <c r="B158">
+        <v>181237850</v>
+      </c>
+      <c r="E158" t="s">
+        <v>504</v>
+      </c>
+      <c r="F158" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>506</v>
+      </c>
+      <c r="B159">
+        <v>392118228</v>
+      </c>
+      <c r="E159" t="s">
+        <v>507</v>
+      </c>
+      <c r="F159" t="s">
+        <v>508</v>
+      </c>
+      <c r="H159" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>510</v>
+      </c>
+      <c r="B160">
+        <v>203264203</v>
+      </c>
+      <c r="E160" t="s">
+        <v>511</v>
+      </c>
+      <c r="F160" t="s">
+        <v>21</v>
+      </c>
+      <c r="H160" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>513</v>
+      </c>
+      <c r="B161">
+        <v>54747439</v>
+      </c>
+      <c r="E161" t="s">
+        <v>514</v>
+      </c>
+      <c r="F161" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>516</v>
+      </c>
+      <c r="B162">
+        <v>251011639</v>
+      </c>
+      <c r="E162" t="s">
+        <v>517</v>
+      </c>
+      <c r="F162" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
